--- a/HomeApp/wwwroot/DB/DBchange.xlsx
+++ b/HomeApp/wwwroot/DB/DBchange.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="authserver" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t xml:space="preserve">Table </t>
   </si>
@@ -168,12 +168,6 @@
     <t>get Application list</t>
   </si>
   <si>
-    <t>lode menu by role</t>
-  </si>
-  <si>
-    <t>Check by load</t>
-  </si>
-  <si>
     <t>insert in db</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Licensee</t>
   </si>
   <si>
-    <t>EmailSMSSheduler</t>
-  </si>
-  <si>
     <t>Proc_Get_DMSIssuedBy_ById</t>
   </si>
   <si>
@@ -259,6 +250,45 @@
   </si>
   <si>
     <t>Licensee Type,Application</t>
+  </si>
+  <si>
+    <t>Check by load execute Proc_Get_MenuBy_UserRoll @UserID=2 ,@check=1</t>
+  </si>
+  <si>
+    <t>lode menu farmate by role used execute Proc_Get_MenuBy_UserRoll @UserID=2 ,@check=2</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>changepassword</t>
+  </si>
+  <si>
+    <t>check=2</t>
+  </si>
+  <si>
+    <t>RecoverPassword</t>
+  </si>
+  <si>
+    <t>check=1</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Proc_Report</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Proc_Dashboard</t>
+  </si>
+  <si>
+    <t>SMSTemplate</t>
   </si>
 </sst>
 </file>
@@ -772,15 +802,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68.42578125" customWidth="1"/>
     <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -803,7 +833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
@@ -823,6 +853,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -909,7 +942,7 @@
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -917,7 +950,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -925,161 +958,208 @@
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
         <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1091,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
